--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>2b9879a4-d4d1-4fd8-9919-cf259f28d2e0</t>
+    <t>3f892387-092b-4c1b-85e1-748835329639</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>3f892387-092b-4c1b-85e1-748835329639</t>
+    <t>6853b608-fda9-48ae-8874-f1fd16e19972</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>6853b608-fda9-48ae-8874-f1fd16e19972</t>
+    <t>19e7d91b-5fb9-4fde-a951-76453d524f92</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>19e7d91b-5fb9-4fde-a951-76453d524f92</t>
+    <t>0a5c6cd3-09a7-4360-9777-e603229c3d3f</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>0a5c6cd3-09a7-4360-9777-e603229c3d3f</t>
+    <t>ff998c64-04c2-4a6b-8d3a-0bfd3b90b648</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>

--- a/storage/app/xlsx/seed_cidades_ac.xlsx
+++ b/storage/app/xlsx/seed_cidades_ac.xlsx
@@ -23,7 +23,7 @@
     <t>ACRELANDENSE</t>
   </si>
   <si>
-    <t>ff998c64-04c2-4a6b-8d3a-0bfd3b90b648</t>
+    <t>4fb8024d-44b3-45a2-9df9-46769576bd69</t>
   </si>
   <si>
     <t>ASSIS BRASIL</t>
